--- a/out/test/Figori_algorithm_20.xlsx
+++ b/out/test/Figori_algorithm_20.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.2601</v>
+        <v>0.25045000000000001</v>
       </c>
       <c r="B1">
-        <v>0.23394999999999999</v>
+        <v>0.14715</v>
       </c>
       <c r="C1">
-        <v>0.15675</v>
+        <v>0.2833</v>
       </c>
       <c r="D1">
-        <v>0.25324999999999998</v>
+        <v>0.186</v>
       </c>
       <c r="E1">
-        <v>0.25714999999999999</v>
+        <v>0.25595000000000001</v>
       </c>
       <c r="F1">
-        <v>0.24495</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="G1">
-        <v>0.14565</v>
+        <v>0.2384</v>
       </c>
       <c r="H1">
-        <v>0.18459999999999999</v>
+        <v>0.14424999999999999</v>
       </c>
       <c r="I1">
-        <v>0.28265000000000001</v>
+        <v>0.29210000000000003</v>
       </c>
       <c r="J1">
-        <v>0.25635000000000002</v>
+        <v>0.29144999999999999</v>
       </c>
       <c r="K1">
-        <v>0.14940000000000001</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="L1">
-        <v>0.29449999999999998</v>
+        <v>0.29794999999999999</v>
       </c>
       <c r="M1">
-        <v>0.24845</v>
+        <v>0.23615</v>
       </c>
       <c r="N1">
-        <v>0.14785000000000001</v>
+        <v>0.2354</v>
       </c>
       <c r="O1">
-        <v>0.18770000000000001</v>
+        <v>0.2974</v>
       </c>
       <c r="P1">
-        <v>0.22985</v>
+        <v>0.23580000000000001</v>
       </c>
       <c r="Q1">
-        <v>0.18215000000000001</v>
+        <v>0.25209999999999999</v>
       </c>
       <c r="R1">
-        <v>0.24845</v>
+        <v>0.25564999999999999</v>
       </c>
       <c r="S1">
-        <v>0.1462</v>
+        <v>0.2596</v>
       </c>
       <c r="T1">
-        <v>0.23335</v>
+        <v>0.23619999999999999</v>
       </c>
       <c r="U1">
-        <v>0.25340000000000001</v>
+        <v>0.18709999999999999</v>
       </c>
       <c r="V1">
-        <v>0.22850000000000001</v>
+        <v>0.25130000000000002</v>
       </c>
       <c r="W1">
-        <v>0.23465</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="X1">
-        <v>0.23405000000000001</v>
+        <v>0.189</v>
       </c>
       <c r="Y1">
-        <v>0.24679999999999999</v>
+        <v>0.14624999999999999</v>
       </c>
       <c r="Z1">
-        <v>0.30940000000000001</v>
+        <v>0.31455</v>
       </c>
       <c r="AA1">
-        <v>0.2329</v>
+        <v>0.25495000000000001</v>
       </c>
       <c r="AB1">
-        <v>0.18895000000000001</v>
+        <v>0.252</v>
       </c>
       <c r="AC1">
-        <v>0.25769999999999998</v>
+        <v>0.29285</v>
       </c>
       <c r="AD1">
-        <v>0.29849999999999999</v>
+        <v>0.30609999999999998</v>
       </c>
       <c r="AE1">
-        <v>0.24915000000000001</v>
+        <v>0.25974999999999998</v>
       </c>
       <c r="AF1">
-        <v>0.152</v>
+        <v>0.14480000000000001</v>
       </c>
       <c r="AG1">
-        <v>0.29135</v>
+        <v>0.22944999999999999</v>
       </c>
       <c r="AH1">
-        <v>0.30070000000000002</v>
+        <v>0.25545000000000001</v>
       </c>
       <c r="AI1">
-        <v>0.25929999999999997</v>
+        <v>0.14560000000000001</v>
       </c>
       <c r="AJ1">
-        <v>0.28365000000000001</v>
+        <v>0.24440000000000001</v>
       </c>
       <c r="AK1">
-        <v>0.29904999999999998</v>
+        <v>0.30654999999999999</v>
       </c>
       <c r="AL1">
-        <v>0.24110000000000001</v>
+        <v>0.30170000000000002</v>
       </c>
       <c r="AM1">
-        <v>0.29515000000000002</v>
+        <v>0.32729999999999998</v>
       </c>
       <c r="AN1">
-        <v>0.23250000000000001</v>
+        <v>0.2495</v>
       </c>
       <c r="AO1">
-        <v>0.23985000000000001</v>
+        <v>0.15054999999999999</v>
       </c>
       <c r="AP1">
-        <v>0.23874999999999999</v>
+        <v>0.25355</v>
       </c>
       <c r="AQ1">
-        <v>0.23845</v>
+        <v>0.27</v>
       </c>
       <c r="AR1">
-        <v>0.24654999999999999</v>
+        <v>0.30175000000000002</v>
       </c>
       <c r="AS1">
-        <v>0.32</v>
+        <v>0.31855</v>
       </c>
       <c r="AT1">
-        <v>0.24440000000000001</v>
+        <v>0.26855000000000001</v>
       </c>
       <c r="AU1">
-        <v>0.24160000000000001</v>
+        <v>0.13489999999999999</v>
       </c>
       <c r="AV1">
-        <v>0.1462</v>
+        <v>0.25459999999999999</v>
       </c>
       <c r="AW1">
-        <v>0.2321</v>
+        <v>0.14274999999999999</v>
       </c>
       <c r="AX1">
-        <v>0.18495</v>
+        <v>0.18545</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.25600000000000001</v>
+        <v>0.29525000000000001</v>
       </c>
       <c r="B2">
-        <v>0.2712</v>
+        <v>0.38690000000000002</v>
       </c>
       <c r="C2">
-        <v>0.3332</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="D2">
-        <v>0.39900000000000002</v>
+        <v>0.54964999999999997</v>
       </c>
       <c r="E2">
-        <v>0.34189999999999998</v>
+        <v>0.45979999999999999</v>
       </c>
       <c r="F2">
-        <v>0.61214999999999997</v>
+        <v>0.46789999999999998</v>
       </c>
       <c r="G2">
-        <v>0.2407</v>
+        <v>0.44159999999999999</v>
       </c>
       <c r="H2">
-        <v>0.44955000000000001</v>
+        <v>0.26989999999999997</v>
       </c>
       <c r="I2">
-        <v>0.33410000000000001</v>
+        <v>0.58789999999999998</v>
       </c>
       <c r="J2">
-        <v>0.3871</v>
+        <v>0.52144999999999997</v>
       </c>
       <c r="K2">
-        <v>0.33750000000000002</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="L2">
-        <v>0.49030000000000001</v>
+        <v>0.27284999999999998</v>
       </c>
       <c r="M2">
-        <v>0.32565</v>
+        <v>0.18490000000000001</v>
       </c>
       <c r="N2">
-        <v>0.1125</v>
+        <v>0.44140000000000001</v>
       </c>
       <c r="O2">
-        <v>0.25779999999999997</v>
+        <v>0.41215000000000002</v>
       </c>
       <c r="P2">
-        <v>0.28810000000000002</v>
+        <v>0.31640000000000001</v>
       </c>
       <c r="Q2">
-        <v>0.30530000000000002</v>
+        <v>0.25785000000000002</v>
       </c>
       <c r="R2">
-        <v>0.54605000000000004</v>
+        <v>0.31950000000000001</v>
       </c>
       <c r="S2">
-        <v>0.2838</v>
+        <v>0.1643</v>
       </c>
       <c r="T2">
-        <v>0.45505000000000001</v>
+        <v>0.45369999999999999</v>
       </c>
       <c r="U2">
-        <v>0.30580000000000002</v>
+        <v>0.50060000000000004</v>
       </c>
       <c r="V2">
-        <v>0.38519999999999999</v>
+        <v>0.45974999999999999</v>
       </c>
       <c r="W2">
-        <v>0.45860000000000001</v>
+        <v>0.3977</v>
       </c>
       <c r="X2">
-        <v>0.23665</v>
+        <v>0.47084999999999999</v>
       </c>
       <c r="Y2">
-        <v>0.19450000000000001</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="Z2">
-        <v>0.3483</v>
+        <v>0.54664999999999997</v>
       </c>
       <c r="AA2">
-        <v>0.42144999999999999</v>
+        <v>0.36364999999999997</v>
       </c>
       <c r="AB2">
-        <v>0.36209999999999998</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="AC2">
-        <v>0.18329999999999999</v>
+        <v>0.34350000000000003</v>
       </c>
       <c r="AD2">
-        <v>0.57750000000000001</v>
+        <v>0.41794999999999999</v>
       </c>
       <c r="AE2">
-        <v>0.26040000000000002</v>
+        <v>0.43955</v>
       </c>
       <c r="AF2">
-        <v>0.47065000000000001</v>
+        <v>0.23394999999999999</v>
       </c>
       <c r="AG2">
-        <v>0.45240000000000002</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.36409999999999998</v>
+        <v>0.45839999999999997</v>
       </c>
       <c r="AI2">
-        <v>0.21054999999999999</v>
+        <v>0.40594999999999998</v>
       </c>
       <c r="AJ2">
-        <v>0.40939999999999999</v>
+        <v>0.62570000000000003</v>
       </c>
       <c r="AK2">
-        <v>0.53625</v>
+        <v>0.34225</v>
       </c>
       <c r="AL2">
-        <v>0.33245000000000002</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="AM2">
-        <v>0.40975</v>
+        <v>0.37845000000000001</v>
       </c>
       <c r="AN2">
-        <v>0.27415</v>
+        <v>0.52070000000000005</v>
       </c>
       <c r="AO2">
-        <v>0.60899999999999999</v>
+        <v>0.20019999999999999</v>
       </c>
       <c r="AP2">
-        <v>0.55089999999999995</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="AQ2">
-        <v>0.3916</v>
+        <v>0.30309999999999998</v>
       </c>
       <c r="AR2">
-        <v>0.55164999999999997</v>
+        <v>0.32079999999999997</v>
       </c>
       <c r="AS2">
-        <v>0.50660000000000005</v>
+        <v>0.56259999999999999</v>
       </c>
       <c r="AT2">
-        <v>0.37245</v>
+        <v>0.46820000000000001</v>
       </c>
       <c r="AU2">
-        <v>0.53810000000000002</v>
+        <v>0.31924999999999998</v>
       </c>
       <c r="AV2">
-        <v>0.1956</v>
+        <v>0.27439999999999998</v>
       </c>
       <c r="AW2">
-        <v>0.3145</v>
+        <v>0.13985</v>
       </c>
       <c r="AX2">
-        <v>0.24879999999999999</v>
+        <v>0.36230000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="B3">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="C3">
+        <v>0.7379</v>
+      </c>
+      <c r="D3">
+        <v>0.91225000000000001</v>
+      </c>
+      <c r="E3">
         <v>0.4294</v>
       </c>
-      <c r="B3">
-        <v>0.81369999999999998</v>
-      </c>
-      <c r="C3">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="D3">
-        <v>0.67320000000000002</v>
-      </c>
-      <c r="E3">
-        <v>0.80410000000000004</v>
-      </c>
       <c r="F3">
-        <v>0.8276</v>
+        <v>0.49104999999999999</v>
       </c>
       <c r="G3">
-        <v>0.59030000000000005</v>
+        <v>0.68010000000000004</v>
       </c>
       <c r="H3">
-        <v>0.54849999999999999</v>
+        <v>0.38250000000000001</v>
       </c>
       <c r="I3">
-        <v>0.91069999999999995</v>
+        <v>0.59109999999999996</v>
       </c>
       <c r="J3">
-        <v>0.76080000000000003</v>
+        <v>0.66549999999999998</v>
       </c>
       <c r="K3">
-        <v>0.89419999999999999</v>
+        <v>0.74329999999999996</v>
       </c>
       <c r="L3">
-        <v>0.73140000000000005</v>
+        <v>0.41289999999999999</v>
       </c>
       <c r="M3">
-        <v>0.2616</v>
+        <v>0.80049999999999999</v>
       </c>
       <c r="N3">
-        <v>0.4652</v>
+        <v>0.41470000000000001</v>
       </c>
       <c r="O3">
-        <v>0.42109999999999997</v>
+        <v>0.90069999999999995</v>
       </c>
       <c r="P3">
-        <v>0.77134999999999998</v>
+        <v>0.5262</v>
       </c>
       <c r="Q3">
-        <v>0.70469999999999999</v>
+        <v>0.57884999999999998</v>
       </c>
       <c r="R3">
-        <v>0.71809999999999996</v>
+        <v>0.8095</v>
       </c>
       <c r="S3">
-        <v>0.44614999999999999</v>
+        <v>0.46045000000000003</v>
       </c>
       <c r="T3">
-        <v>0.72829999999999995</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="U3">
-        <v>0.6794</v>
+        <v>0.71340000000000003</v>
       </c>
       <c r="V3">
-        <v>0.33829999999999999</v>
+        <v>0.62450000000000006</v>
       </c>
       <c r="W3">
-        <v>0.55095000000000005</v>
+        <v>0.95740000000000003</v>
       </c>
       <c r="X3">
-        <v>0.59840000000000004</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="Y3">
-        <v>0.77780000000000005</v>
+        <v>0.56820000000000004</v>
       </c>
       <c r="Z3">
-        <v>0.67949999999999999</v>
+        <v>0.95740000000000003</v>
       </c>
       <c r="AA3">
-        <v>0.83109999999999995</v>
+        <v>0.80120000000000002</v>
       </c>
       <c r="AB3">
-        <v>0.32555000000000001</v>
+        <v>0.71020000000000005</v>
       </c>
       <c r="AC3">
-        <v>0.6603</v>
+        <v>0.93420000000000003</v>
       </c>
       <c r="AD3">
-        <v>0.73929999999999996</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="AE3">
-        <v>0.34244999999999998</v>
+        <v>0.61324999999999996</v>
       </c>
       <c r="AF3">
-        <v>0.8226</v>
+        <v>0.47039999999999998</v>
       </c>
       <c r="AG3">
-        <v>0.45829999999999999</v>
+        <v>0.61450000000000005</v>
       </c>
       <c r="AH3">
-        <v>0.54674999999999996</v>
+        <v>0.46250000000000002</v>
       </c>
       <c r="AI3">
-        <v>0.32569999999999999</v>
+        <v>0.63390000000000002</v>
       </c>
       <c r="AJ3">
-        <v>0.56240000000000001</v>
+        <v>0.84619999999999995</v>
       </c>
       <c r="AK3">
-        <v>0.74529999999999996</v>
+        <v>0.89575000000000005</v>
       </c>
       <c r="AL3">
-        <v>0.72589999999999999</v>
+        <v>0.42320000000000002</v>
       </c>
       <c r="AM3">
-        <v>0.84540000000000004</v>
+        <v>0.86704999999999999</v>
       </c>
       <c r="AN3">
-        <v>0.58779999999999999</v>
+        <v>0.43890000000000001</v>
       </c>
       <c r="AO3">
-        <v>0.52500000000000002</v>
+        <v>0.439</v>
       </c>
       <c r="AP3">
-        <v>0.46700000000000003</v>
+        <v>0.58120000000000005</v>
       </c>
       <c r="AQ3">
-        <v>0.57415000000000005</v>
+        <v>0.58830000000000005</v>
       </c>
       <c r="AR3">
-        <v>0.75529999999999997</v>
+        <v>0.73109999999999997</v>
       </c>
       <c r="AS3">
-        <v>0.68520000000000003</v>
+        <v>0.67620000000000002</v>
       </c>
       <c r="AT3">
-        <v>0.76319999999999999</v>
+        <v>0.62060000000000004</v>
       </c>
       <c r="AU3">
-        <v>0.81850000000000001</v>
+        <v>0.26479999999999998</v>
       </c>
       <c r="AV3">
-        <v>0.66849999999999998</v>
+        <v>0.4718</v>
       </c>
       <c r="AW3">
-        <v>0.54730000000000001</v>
+        <v>0.23519999999999999</v>
       </c>
       <c r="AX3">
-        <v>0.59624999999999995</v>
+        <v>0.6512</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.96489999999999998</v>
+        <v>0.69979999999999998</v>
       </c>
       <c r="B4">
-        <v>0.68969999999999998</v>
+        <v>0.68879999999999997</v>
       </c>
       <c r="C4">
-        <v>0.57869999999999999</v>
+        <v>0.31519999999999998</v>
       </c>
       <c r="D4">
-        <v>0.8216</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="E4">
-        <v>0.74590000000000001</v>
+        <v>0.65010000000000001</v>
       </c>
       <c r="F4">
-        <v>0.83109999999999995</v>
+        <v>0.74860000000000004</v>
       </c>
       <c r="G4">
-        <v>0.62119999999999997</v>
+        <v>0.72889999999999999</v>
       </c>
       <c r="H4">
-        <v>0.71860000000000002</v>
+        <v>0.86850000000000005</v>
       </c>
       <c r="I4">
-        <v>0.87329999999999997</v>
+        <v>0.48880000000000001</v>
       </c>
       <c r="J4">
-        <v>0.63100000000000001</v>
+        <v>0.74839999999999995</v>
       </c>
       <c r="K4">
-        <v>0.96779999999999999</v>
+        <v>0.77659999999999996</v>
       </c>
       <c r="L4">
-        <v>0.73450000000000004</v>
+        <v>0.66379999999999995</v>
       </c>
       <c r="M4">
-        <v>0.91959999999999997</v>
+        <v>0.80230000000000001</v>
       </c>
       <c r="N4">
-        <v>0.5776</v>
+        <v>0.56189999999999996</v>
       </c>
       <c r="O4">
-        <v>0.73129999999999995</v>
+        <v>0.81189999999999996</v>
       </c>
       <c r="P4">
-        <v>0.80210000000000004</v>
+        <v>0.43980000000000002</v>
       </c>
       <c r="Q4">
-        <v>0.85589999999999999</v>
+        <v>0.84150000000000003</v>
       </c>
       <c r="R4">
-        <v>0.7056</v>
+        <v>0.63439999999999996</v>
       </c>
       <c r="S4">
-        <v>0.81630000000000003</v>
+        <v>0.53169999999999995</v>
       </c>
       <c r="T4">
-        <v>0.80200000000000005</v>
+        <v>0.61329999999999996</v>
       </c>
       <c r="U4">
-        <v>0.93059999999999998</v>
+        <v>0.79220000000000002</v>
       </c>
       <c r="V4">
-        <v>0.4466</v>
+        <v>0.58650000000000002</v>
       </c>
       <c r="W4">
-        <v>0.62729999999999997</v>
+        <v>0.80579999999999996</v>
       </c>
       <c r="X4">
-        <v>0.66990000000000005</v>
+        <v>0.41635</v>
       </c>
       <c r="Y4">
-        <v>0.76290000000000002</v>
+        <v>0.81174999999999997</v>
       </c>
       <c r="Z4">
-        <v>0.77259999999999995</v>
+        <v>0.90839999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.76829999999999998</v>
+        <v>0.79679999999999995</v>
       </c>
       <c r="AB4">
-        <v>0.31219999999999998</v>
+        <v>0.67459999999999998</v>
       </c>
       <c r="AC4">
-        <v>0.87519999999999998</v>
+        <v>0.89659999999999995</v>
       </c>
       <c r="AD4">
-        <v>0.91449999999999998</v>
+        <v>0.83789999999999998</v>
       </c>
       <c r="AE4">
-        <v>0.8619</v>
+        <v>0.53459999999999996</v>
       </c>
       <c r="AF4">
-        <v>0.96904999999999997</v>
+        <v>0.45750000000000002</v>
       </c>
       <c r="AG4">
-        <v>0.34899999999999998</v>
+        <v>0.3967</v>
       </c>
       <c r="AH4">
-        <v>0.83289999999999997</v>
+        <v>0.69450000000000001</v>
       </c>
       <c r="AI4">
-        <v>0.64710000000000001</v>
+        <v>0.87009999999999998</v>
       </c>
       <c r="AJ4">
-        <v>0.91679999999999995</v>
+        <v>0.87649999999999995</v>
       </c>
       <c r="AK4">
-        <v>0.65680000000000005</v>
+        <v>0.87119999999999997</v>
       </c>
       <c r="AL4">
-        <v>0.76300000000000001</v>
+        <v>0.4451</v>
       </c>
       <c r="AM4">
-        <v>0.80120000000000002</v>
+        <v>0.98240000000000005</v>
       </c>
       <c r="AN4">
-        <v>0.65620000000000001</v>
+        <v>0.8226</v>
       </c>
       <c r="AO4">
-        <v>0.84109999999999996</v>
+        <v>0.34420000000000001</v>
       </c>
       <c r="AP4">
-        <v>0.59970000000000001</v>
+        <v>0.67225000000000001</v>
       </c>
       <c r="AQ4">
-        <v>0.64490000000000003</v>
+        <v>0.75085000000000002</v>
       </c>
       <c r="AR4">
-        <v>0.74299999999999999</v>
+        <v>0.66190000000000004</v>
       </c>
       <c r="AS4">
-        <v>0.68730000000000002</v>
+        <v>0.80069999999999997</v>
       </c>
       <c r="AT4">
-        <v>0.69589999999999996</v>
+        <v>0.69710000000000005</v>
       </c>
       <c r="AU4">
-        <v>0.72514999999999996</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="AV4">
-        <v>0.84119999999999995</v>
+        <v>0.66379999999999995</v>
       </c>
       <c r="AW4">
-        <v>0.71679999999999999</v>
+        <v>0.38850000000000001</v>
       </c>
       <c r="AX4">
-        <v>0.45400000000000001</v>
+        <v>0.68225000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.96160000000000001</v>
+        <v>0.60229999999999995</v>
       </c>
       <c r="B5">
-        <v>0.45</v>
+        <v>0.55049999999999999</v>
       </c>
       <c r="C5">
-        <v>0.48630000000000001</v>
+        <v>0.65249999999999997</v>
       </c>
       <c r="D5">
-        <v>0.81889999999999996</v>
+        <v>0.81950000000000001</v>
       </c>
       <c r="E5">
-        <v>0.70620000000000005</v>
+        <v>0.73080000000000001</v>
       </c>
       <c r="F5">
-        <v>0.82099999999999995</v>
+        <v>0.86650000000000005</v>
       </c>
       <c r="G5">
-        <v>0.51429999999999998</v>
+        <v>0.82369999999999999</v>
       </c>
       <c r="H5">
-        <v>0.55159999999999998</v>
+        <v>0.89880000000000004</v>
       </c>
       <c r="I5">
-        <v>0.66190000000000004</v>
+        <v>0.81669999999999998</v>
       </c>
       <c r="J5">
-        <v>0.46360000000000001</v>
+        <v>0.73680000000000001</v>
       </c>
       <c r="K5">
-        <v>0.98540000000000005</v>
+        <v>0.86409999999999998</v>
       </c>
       <c r="L5">
-        <v>0.78269999999999995</v>
+        <v>0.83389999999999997</v>
       </c>
       <c r="M5">
-        <v>0.91759999999999997</v>
+        <v>0.89359999999999995</v>
       </c>
       <c r="N5">
-        <v>0.98160000000000003</v>
+        <v>0.9214</v>
       </c>
       <c r="O5">
-        <v>0.69269999999999998</v>
+        <v>0.89839999999999998</v>
       </c>
       <c r="P5">
-        <v>0.9486</v>
+        <v>0.76029999999999998</v>
       </c>
       <c r="Q5">
-        <v>0.83240000000000003</v>
+        <v>0.85240000000000005</v>
       </c>
       <c r="R5">
-        <v>0.77210000000000001</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="S5">
-        <v>0.84799999999999998</v>
+        <v>0.71009999999999995</v>
       </c>
       <c r="T5">
-        <v>0.79259999999999997</v>
+        <v>0.84279999999999999</v>
       </c>
       <c r="U5">
-        <v>0.93320000000000003</v>
+        <v>0.76160000000000005</v>
       </c>
       <c r="V5">
-        <v>0.82069999999999999</v>
+        <v>0.67859999999999998</v>
       </c>
       <c r="W5">
-        <v>0.53374999999999995</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="X5">
-        <v>0.88100000000000001</v>
+        <v>0.42609999999999998</v>
       </c>
       <c r="Y5">
-        <v>0.85709999999999997</v>
+        <v>0.71020000000000005</v>
       </c>
       <c r="Z5">
-        <v>0.91610000000000003</v>
+        <v>0.9415</v>
       </c>
       <c r="AA5">
-        <v>0.75849999999999995</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="AB5">
-        <v>0.56859999999999999</v>
+        <v>0.72540000000000004</v>
       </c>
       <c r="AC5">
-        <v>0.90380000000000005</v>
+        <v>0.98409999999999997</v>
       </c>
       <c r="AD5">
-        <v>0.80430000000000001</v>
+        <v>0.9254</v>
       </c>
       <c r="AE5">
-        <v>0.83889999999999998</v>
+        <v>0.42120000000000002</v>
       </c>
       <c r="AF5">
-        <v>0.92400000000000004</v>
+        <v>0.32879999999999998</v>
       </c>
       <c r="AG5">
-        <v>0.77180000000000004</v>
+        <v>0.39050000000000001</v>
       </c>
       <c r="AH5">
-        <v>0.47249999999999998</v>
+        <v>0.61029999999999995</v>
       </c>
       <c r="AI5">
-        <v>0.48480000000000001</v>
+        <v>0.60389999999999999</v>
       </c>
       <c r="AJ5">
-        <v>0.81499999999999995</v>
+        <v>0.98260000000000003</v>
       </c>
       <c r="AK5">
-        <v>0.67410000000000003</v>
+        <v>0.80640000000000001</v>
       </c>
       <c r="AL5">
-        <v>0.61809999999999998</v>
+        <v>0.52629999999999999</v>
       </c>
       <c r="AM5">
-        <v>0.65980000000000005</v>
+        <v>0.79610000000000003</v>
       </c>
       <c r="AN5">
-        <v>0.62680000000000002</v>
+        <v>0.75380000000000003</v>
       </c>
       <c r="AO5">
-        <v>0.6925</v>
+        <v>0.50170000000000003</v>
       </c>
       <c r="AP5">
-        <v>0.78959999999999997</v>
+        <v>0.60780000000000001</v>
       </c>
       <c r="AQ5">
-        <v>0.44900000000000001</v>
+        <v>0.93879999999999997</v>
       </c>
       <c r="AR5">
-        <v>0.90669999999999995</v>
+        <v>0.86719999999999997</v>
       </c>
       <c r="AS5">
-        <v>0.79159999999999997</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="AT5">
-        <v>0.91359999999999997</v>
+        <v>0.87060000000000004</v>
       </c>
       <c r="AU5">
-        <v>0.65920000000000001</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="AV5">
-        <v>0.89259999999999995</v>
+        <v>0.79149999999999998</v>
       </c>
       <c r="AW5">
-        <v>0.66379999999999995</v>
+        <v>0.57250000000000001</v>
       </c>
       <c r="AX5">
-        <v>0.57740000000000002</v>
+        <v>0.76129999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.78149999999999997</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="B6">
-        <v>0.749</v>
+        <v>0.61970000000000003</v>
       </c>
       <c r="C6">
-        <v>0.84599999999999997</v>
+        <v>0.89680000000000004</v>
       </c>
       <c r="D6">
-        <v>0.91510000000000002</v>
+        <v>0.84850000000000003</v>
       </c>
       <c r="E6">
-        <v>0.75880000000000003</v>
+        <v>0.81810000000000005</v>
       </c>
       <c r="F6">
-        <v>0.87649999999999995</v>
+        <v>0.85629999999999995</v>
       </c>
       <c r="G6">
-        <v>0.36849999999999999</v>
+        <v>0.85429999999999995</v>
       </c>
       <c r="H6">
-        <v>0.4113</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="I6">
-        <v>0.75329999999999997</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="J6">
-        <v>0.49959999999999999</v>
+        <v>0.61129999999999995</v>
       </c>
       <c r="K6">
-        <v>0.97330000000000005</v>
+        <v>0.69350000000000001</v>
       </c>
       <c r="L6">
-        <v>0.81210000000000004</v>
+        <v>0.79469999999999996</v>
       </c>
       <c r="M6">
-        <v>0.97170000000000001</v>
+        <v>0.93189999999999995</v>
       </c>
       <c r="N6">
-        <v>0.91459999999999997</v>
+        <v>0.88519999999999999</v>
       </c>
       <c r="O6">
-        <v>0.78380000000000005</v>
+        <v>0.74790000000000001</v>
       </c>
       <c r="P6">
-        <v>0.78759999999999997</v>
+        <v>0.74580000000000002</v>
       </c>
       <c r="Q6">
-        <v>0.71220000000000006</v>
+        <v>0.89170000000000005</v>
       </c>
       <c r="R6">
-        <v>0.6774</v>
+        <v>0.86890000000000001</v>
       </c>
       <c r="S6">
-        <v>0.94610000000000005</v>
+        <v>0.61119999999999997</v>
       </c>
       <c r="T6">
-        <v>0.79890000000000005</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="U6">
-        <v>0.87660000000000005</v>
+        <v>0.90059999999999996</v>
       </c>
       <c r="V6">
-        <v>0.56359999999999999</v>
+        <v>0.64419999999999999</v>
       </c>
       <c r="W6">
-        <v>0.37519999999999998</v>
+        <v>0.79949999999999999</v>
       </c>
       <c r="X6">
-        <v>0.9083</v>
+        <v>0.4662</v>
       </c>
       <c r="Y6">
-        <v>0.76619999999999999</v>
+        <v>0.53180000000000005</v>
       </c>
       <c r="Z6">
-        <v>0.85809999999999997</v>
+        <v>0.89480000000000004</v>
       </c>
       <c r="AA6">
-        <v>0.8155</v>
+        <v>0.81130000000000002</v>
       </c>
       <c r="AB6">
-        <v>0.44569999999999999</v>
+        <v>0.7329</v>
       </c>
       <c r="AC6">
-        <v>0.74460000000000004</v>
+        <v>0.8972</v>
       </c>
       <c r="AD6">
-        <v>0.48759999999999998</v>
+        <v>0.92459999999999998</v>
       </c>
       <c r="AE6">
-        <v>0.84619999999999995</v>
+        <v>0.46739999999999998</v>
       </c>
       <c r="AF6">
-        <v>0.92379999999999995</v>
+        <v>0.65559999999999996</v>
       </c>
       <c r="AG6">
-        <v>0.98460000000000003</v>
+        <v>0.29709999999999998</v>
       </c>
       <c r="AH6">
-        <v>0.36520000000000002</v>
+        <v>0.62619999999999998</v>
       </c>
       <c r="AI6">
-        <v>0.66859999999999997</v>
+        <v>0.48089999999999999</v>
       </c>
       <c r="AJ6">
-        <v>0.59470000000000001</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="AK6">
-        <v>0.5696</v>
+        <v>0.81879999999999997</v>
       </c>
       <c r="AL6">
-        <v>0.49380000000000002</v>
+        <v>0.71819999999999995</v>
       </c>
       <c r="AM6">
-        <v>0.31180000000000002</v>
+        <v>0.67769999999999997</v>
       </c>
       <c r="AN6">
-        <v>0.55730000000000002</v>
+        <v>0.70740000000000003</v>
       </c>
       <c r="AO6">
-        <v>0.64449999999999996</v>
+        <v>0.71309999999999996</v>
       </c>
       <c r="AP6">
-        <v>0.7752</v>
+        <v>0.62549999999999994</v>
       </c>
       <c r="AQ6">
-        <v>0.46310000000000001</v>
+        <v>0.82520000000000004</v>
       </c>
       <c r="AR6">
-        <v>0.92530000000000001</v>
+        <v>0.89810000000000001</v>
       </c>
       <c r="AS6">
-        <v>0.72140000000000004</v>
+        <v>0.74980000000000002</v>
       </c>
       <c r="AT6">
-        <v>0.87929999999999997</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="AU6">
-        <v>0.72209999999999996</v>
+        <v>0.89849999999999997</v>
       </c>
       <c r="AV6">
-        <v>0.79359999999999997</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="AW6">
-        <v>0.66859999999999997</v>
+        <v>0.65880000000000005</v>
       </c>
       <c r="AX6">
-        <v>0.78510000000000002</v>
+        <v>0.84240000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.39410000000000001</v>
+        <v>0.63680000000000003</v>
       </c>
       <c r="B7">
-        <v>0.74260000000000004</v>
+        <v>0.50880000000000003</v>
       </c>
       <c r="C7">
-        <v>0.90049999999999997</v>
+        <v>0.93540000000000001</v>
       </c>
       <c r="D7">
-        <v>0.86809999999999998</v>
+        <v>0.71130000000000004</v>
       </c>
       <c r="E7">
-        <v>0.55389999999999995</v>
+        <v>0.66</v>
       </c>
       <c r="F7">
-        <v>0.80840000000000001</v>
+        <v>0.85929999999999995</v>
       </c>
       <c r="G7">
-        <v>0.35120000000000001</v>
+        <v>0.5756</v>
       </c>
       <c r="H7">
-        <v>0.43990000000000001</v>
+        <v>0.99509999999999998</v>
       </c>
       <c r="I7">
-        <v>0.57310000000000005</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="J7">
-        <v>0.57869999999999999</v>
+        <v>0.6351</v>
       </c>
       <c r="K7">
-        <v>0.99009999999999998</v>
+        <v>0.67630000000000001</v>
       </c>
       <c r="L7">
-        <v>0.54879999999999995</v>
+        <v>0.6804</v>
       </c>
       <c r="M7">
-        <v>0.94620000000000004</v>
+        <v>0.82709999999999995</v>
       </c>
       <c r="N7">
-        <v>0.9526</v>
+        <v>0.86739999999999995</v>
       </c>
       <c r="O7">
-        <v>0.65920000000000001</v>
+        <v>0.57969999999999999</v>
       </c>
       <c r="P7">
-        <v>0.86960000000000004</v>
+        <v>0.61109999999999998</v>
       </c>
       <c r="Q7">
-        <v>0.88329999999999997</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="R7">
-        <v>0.7419</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="S7">
-        <v>0.83220000000000005</v>
+        <v>0.62570000000000003</v>
       </c>
       <c r="T7">
-        <v>0.57840000000000003</v>
+        <v>0.68389999999999995</v>
       </c>
       <c r="U7">
-        <v>0.71319999999999995</v>
+        <v>0.93340000000000001</v>
       </c>
       <c r="V7">
-        <v>0.50919999999999999</v>
+        <v>0.70079999999999998</v>
       </c>
       <c r="W7">
-        <v>0.44679999999999997</v>
+        <v>0.67149999999999999</v>
       </c>
       <c r="X7">
-        <v>0.93820000000000003</v>
+        <v>0.53969999999999996</v>
       </c>
       <c r="Y7">
-        <v>0.6139</v>
+        <v>0.62339999999999995</v>
       </c>
       <c r="Z7">
-        <v>0.66949999999999998</v>
+        <v>0.77829999999999999</v>
       </c>
       <c r="AA7">
-        <v>0.75290000000000001</v>
+        <v>0.87470000000000003</v>
       </c>
       <c r="AB7">
-        <v>0.4476</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="AC7">
-        <v>0.73980000000000001</v>
+        <v>0.73240000000000005</v>
       </c>
       <c r="AD7">
-        <v>0.36530000000000001</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="AE7">
-        <v>0.61009999999999998</v>
+        <v>0.76749999999999996</v>
       </c>
       <c r="AF7">
-        <v>0.88660000000000005</v>
+        <v>0.69130000000000003</v>
       </c>
       <c r="AG7">
-        <v>0.96399999999999997</v>
+        <v>0.35020000000000001</v>
       </c>
       <c r="AH7">
-        <v>0.26200000000000001</v>
+        <v>0.46260000000000001</v>
       </c>
       <c r="AI7">
-        <v>0.5333</v>
+        <v>0.64880000000000004</v>
       </c>
       <c r="AJ7">
-        <v>0.84709999999999996</v>
+        <v>0.90549999999999997</v>
       </c>
       <c r="AK7">
-        <v>0.31769999999999998</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="AL7">
-        <v>0.55259999999999998</v>
+        <v>0.55330000000000001</v>
       </c>
       <c r="AM7">
-        <v>0.30049999999999999</v>
+        <v>0.57350000000000001</v>
       </c>
       <c r="AN7">
-        <v>0.53469999999999995</v>
+        <v>0.82</v>
       </c>
       <c r="AO7">
-        <v>0.67949999999999999</v>
+        <v>0.73629999999999995</v>
       </c>
       <c r="AP7">
-        <v>0.68389999999999995</v>
+        <v>0.65639999999999998</v>
       </c>
       <c r="AQ7">
-        <v>0.46529999999999999</v>
+        <v>0.73619999999999997</v>
       </c>
       <c r="AR7">
-        <v>0.9466</v>
+        <v>0.62849999999999995</v>
       </c>
       <c r="AS7">
-        <v>0.67469999999999997</v>
+        <v>0.71109999999999995</v>
       </c>
       <c r="AT7">
-        <v>0.96179999999999999</v>
+        <v>0.97230000000000005</v>
       </c>
       <c r="AU7">
-        <v>0.52449999999999997</v>
+        <v>0.78080000000000005</v>
       </c>
       <c r="AV7">
-        <v>0.85850000000000004</v>
+        <v>0.69920000000000004</v>
       </c>
       <c r="AW7">
-        <v>0.65110000000000001</v>
+        <v>0.61860000000000004</v>
       </c>
       <c r="AX7">
-        <v>0.87639999999999996</v>
+        <v>0.69750000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.2848</v>
+        <v>0.64180000000000004</v>
       </c>
       <c r="B8">
-        <v>0.57930000000000004</v>
+        <v>0.42</v>
       </c>
       <c r="C8">
-        <v>0.92689999999999995</v>
+        <v>0.91090000000000004</v>
       </c>
       <c r="D8">
-        <v>0.78300000000000003</v>
+        <v>0.73250000000000004</v>
       </c>
       <c r="E8">
-        <v>0.34179999999999999</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="F8">
-        <v>0.82330000000000003</v>
+        <v>0.92049999999999998</v>
       </c>
       <c r="G8">
-        <v>0.15210000000000001</v>
+        <v>0.57750000000000001</v>
       </c>
       <c r="H8">
-        <v>0.51359999999999995</v>
+        <v>0.97150000000000003</v>
       </c>
       <c r="I8">
-        <v>0.75290000000000001</v>
+        <v>0.88049999999999995</v>
       </c>
       <c r="J8">
-        <v>0.59909999999999997</v>
+        <v>0.438</v>
       </c>
       <c r="K8">
-        <v>0.93020000000000003</v>
+        <v>0.67979999999999996</v>
       </c>
       <c r="L8">
-        <v>0.435</v>
+        <v>0.7994</v>
       </c>
       <c r="M8">
-        <v>0.9476</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="N8">
-        <v>0.91769999999999996</v>
+        <v>0.66959999999999997</v>
       </c>
       <c r="O8">
-        <v>0.86760000000000004</v>
+        <v>0.47039999999999998</v>
       </c>
       <c r="P8">
-        <v>0.71870000000000001</v>
+        <v>0.64059999999999995</v>
       </c>
       <c r="Q8">
-        <v>0.85589999999999999</v>
+        <v>0.82840000000000003</v>
       </c>
       <c r="R8">
-        <v>0.69740000000000002</v>
+        <v>0.7792</v>
       </c>
       <c r="S8">
-        <v>0.70289999999999997</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="T8">
-        <v>0.93869999999999998</v>
+        <v>0.71050000000000002</v>
       </c>
       <c r="U8">
-        <v>0.75549999999999995</v>
+        <v>0.83409999999999995</v>
       </c>
       <c r="V8">
-        <v>0.63229999999999997</v>
+        <v>0.87790000000000001</v>
       </c>
       <c r="W8">
-        <v>0.39</v>
+        <v>0.79090000000000005</v>
       </c>
       <c r="X8">
-        <v>0.94869999999999999</v>
+        <v>0.59419999999999995</v>
       </c>
       <c r="Y8">
-        <v>0.72389999999999999</v>
+        <v>0.67630000000000001</v>
       </c>
       <c r="Z8">
-        <v>0.51759999999999995</v>
+        <v>0.65169999999999995</v>
       </c>
       <c r="AA8">
-        <v>0.61150000000000004</v>
+        <v>0.54490000000000005</v>
       </c>
       <c r="AB8">
-        <v>0.38140000000000002</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="AC8">
-        <v>0.9466</v>
+        <v>0.80830000000000002</v>
       </c>
       <c r="AD8">
-        <v>0.5111</v>
+        <v>0.7863</v>
       </c>
       <c r="AE8">
-        <v>0.52749999999999997</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="AF8">
-        <v>0.83709999999999996</v>
+        <v>0.61919999999999997</v>
       </c>
       <c r="AG8">
-        <v>0.99470000000000003</v>
+        <v>0.38019999999999998</v>
       </c>
       <c r="AH8">
-        <v>0.2157</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="AI8">
-        <v>0.4763</v>
+        <v>0.64890000000000003</v>
       </c>
       <c r="AJ8">
-        <v>0.6724</v>
+        <v>0.85129999999999995</v>
       </c>
       <c r="AK8">
-        <v>0.54659999999999997</v>
+        <v>0.68330000000000002</v>
       </c>
       <c r="AL8">
-        <v>0.73560000000000003</v>
+        <v>0.51129999999999998</v>
       </c>
       <c r="AM8">
-        <v>0.32890000000000003</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="AN8">
-        <v>0.45250000000000001</v>
+        <v>0.77149999999999996</v>
       </c>
       <c r="AO8">
-        <v>0.75970000000000004</v>
+        <v>0.64219999999999999</v>
       </c>
       <c r="AP8">
-        <v>0.69820000000000004</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="AQ8">
-        <v>0.4632</v>
+        <v>0.57120000000000004</v>
       </c>
       <c r="AR8">
-        <v>0.94010000000000005</v>
+        <v>0.4526</v>
       </c>
       <c r="AS8">
-        <v>0.74350000000000005</v>
+        <v>0.62560000000000004</v>
       </c>
       <c r="AT8">
-        <v>0.91020000000000001</v>
+        <v>1</v>
       </c>
       <c r="AU8">
-        <v>0.28499999999999998</v>
+        <v>0.52010000000000001</v>
       </c>
       <c r="AV8">
-        <v>0.84370000000000001</v>
+        <v>0.68069999999999997</v>
       </c>
       <c r="AW8">
-        <v>0.60960000000000003</v>
+        <v>0.57769999999999999</v>
       </c>
       <c r="AX8">
-        <v>0.75209999999999999</v>
+        <v>0.42970000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.14779999999999999</v>
+        <v>0.58460000000000001</v>
       </c>
       <c r="B9">
-        <v>0.50600000000000001</v>
+        <v>0.22869999999999999</v>
       </c>
       <c r="C9">
-        <v>0.45519999999999999</v>
+        <v>0.87250000000000005</v>
       </c>
       <c r="D9">
-        <v>0.61670000000000003</v>
+        <v>0.63649999999999995</v>
       </c>
       <c r="E9">
-        <v>0.30149999999999999</v>
+        <v>0.8538</v>
       </c>
       <c r="F9">
-        <v>0.61409999999999998</v>
+        <v>0.91120000000000001</v>
       </c>
       <c r="G9">
-        <v>0.33179999999999998</v>
+        <v>0.5444</v>
       </c>
       <c r="H9">
-        <v>0.42880000000000001</v>
+        <v>0.86170000000000002</v>
       </c>
       <c r="I9">
-        <v>0.5746</v>
+        <v>0.7974</v>
       </c>
       <c r="J9">
-        <v>0.68779999999999997</v>
+        <v>0.6845</v>
       </c>
       <c r="K9">
-        <v>0.89139999999999997</v>
+        <v>0.59519999999999995</v>
       </c>
       <c r="L9">
-        <v>0.51449999999999996</v>
+        <v>0.66769999999999996</v>
       </c>
       <c r="M9">
-        <v>0.81330000000000002</v>
+        <v>0.92920000000000003</v>
       </c>
       <c r="N9">
-        <v>0.95230000000000004</v>
+        <v>0.54820000000000002</v>
       </c>
       <c r="O9">
-        <v>0.78200000000000003</v>
+        <v>0.45950000000000002</v>
       </c>
       <c r="P9">
-        <v>0.83730000000000004</v>
+        <v>0.66849999999999998</v>
       </c>
       <c r="Q9">
-        <v>0.88990000000000002</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="R9">
-        <v>0.5806</v>
+        <v>0.95660000000000001</v>
       </c>
       <c r="S9">
-        <v>0.5998</v>
+        <v>0.70650000000000002</v>
       </c>
       <c r="T9">
-        <v>0.92559999999999998</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="U9">
-        <v>0.84260000000000002</v>
+        <v>0.93979999999999997</v>
       </c>
       <c r="V9">
-        <v>0.52090000000000003</v>
+        <v>0.84050000000000002</v>
       </c>
       <c r="W9">
-        <v>0.48809999999999998</v>
+        <v>0.68020000000000003</v>
       </c>
       <c r="X9">
-        <v>0.90329999999999999</v>
+        <v>0.55840000000000001</v>
       </c>
       <c r="Y9">
-        <v>0.48809999999999998</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="Z9">
-        <v>0.4541</v>
+        <v>0.80759999999999998</v>
       </c>
       <c r="AA9">
-        <v>0.5494</v>
+        <v>0.3624</v>
       </c>
       <c r="AB9">
-        <v>0.43070000000000003</v>
+        <v>0.85760000000000003</v>
       </c>
       <c r="AC9">
-        <v>0.89139999999999997</v>
+        <v>0.83040000000000003</v>
       </c>
       <c r="AD9">
-        <v>0.54200000000000004</v>
+        <v>0.76339999999999997</v>
       </c>
       <c r="AE9">
-        <v>0.40589999999999998</v>
+        <v>0.7994</v>
       </c>
       <c r="AF9">
-        <v>0.6956</v>
+        <v>0.56430000000000002</v>
       </c>
       <c r="AG9">
-        <v>0.98950000000000005</v>
+        <v>0.44929999999999998</v>
       </c>
       <c r="AH9">
-        <v>0.1762</v>
+        <v>0.54120000000000001</v>
       </c>
       <c r="AI9">
-        <v>0.54610000000000003</v>
+        <v>0.73829999999999996</v>
       </c>
       <c r="AJ9">
-        <v>0.59640000000000004</v>
+        <v>0.69710000000000005</v>
       </c>
       <c r="AK9">
-        <v>0.78090000000000004</v>
+        <v>0.39319999999999999</v>
       </c>
       <c r="AL9">
-        <v>0.79990000000000006</v>
+        <v>0.55159999999999998</v>
       </c>
       <c r="AM9">
-        <v>0.2702</v>
+        <v>0.61839999999999995</v>
       </c>
       <c r="AN9">
-        <v>0.41880000000000001</v>
+        <v>0.69110000000000005</v>
       </c>
       <c r="AO9">
-        <v>0.71489999999999998</v>
+        <v>0.52139999999999997</v>
       </c>
       <c r="AP9">
-        <v>0.62390000000000001</v>
+        <v>0.62480000000000002</v>
       </c>
       <c r="AQ9">
-        <v>0.4632</v>
+        <v>0.24149999999999999</v>
       </c>
       <c r="AR9">
-        <v>0.93989999999999996</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="AS9">
-        <v>0.44950000000000001</v>
+        <v>0.75419999999999998</v>
       </c>
       <c r="AT9">
-        <v>0.87980000000000003</v>
+        <v>0.97219999999999995</v>
       </c>
       <c r="AU9">
-        <v>0.4622</v>
+        <v>0.51770000000000005</v>
       </c>
       <c r="AV9">
-        <v>0.88880000000000003</v>
+        <v>0.64980000000000004</v>
       </c>
       <c r="AW9">
-        <v>0.5746</v>
+        <v>0.45850000000000002</v>
       </c>
       <c r="AX9">
-        <v>0.70140000000000002</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.2218</v>
+        <v>0.33439999999999998</v>
       </c>
       <c r="B10">
-        <v>0.53059999999999996</v>
+        <v>0.33739999999999998</v>
       </c>
       <c r="C10">
-        <v>0.2545</v>
+        <v>0.86339999999999995</v>
       </c>
       <c r="D10">
-        <v>0.7198</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="E10">
-        <v>0.40739999999999998</v>
+        <v>0.75380000000000003</v>
       </c>
       <c r="F10">
-        <v>0.64890000000000003</v>
+        <v>0.92749999999999999</v>
       </c>
       <c r="G10">
-        <v>0.19589999999999999</v>
+        <v>0.45779999999999998</v>
       </c>
       <c r="H10">
-        <v>0.45579999999999998</v>
+        <v>0.4677</v>
       </c>
       <c r="I10">
-        <v>0.56210000000000004</v>
+        <v>0.68310000000000004</v>
       </c>
       <c r="J10">
-        <v>0.64119999999999999</v>
+        <v>0.52070000000000005</v>
       </c>
       <c r="K10">
-        <v>0.79790000000000005</v>
+        <v>0.51739999999999997</v>
       </c>
       <c r="L10">
-        <v>0.45050000000000001</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="M10">
-        <v>0.7127</v>
+        <v>0.74390000000000001</v>
       </c>
       <c r="N10">
-        <v>0.92800000000000005</v>
+        <v>0.41739999999999999</v>
       </c>
       <c r="O10">
-        <v>0.86460000000000004</v>
+        <v>0.59670000000000001</v>
       </c>
       <c r="P10">
-        <v>0.58360000000000001</v>
+        <v>0.24579999999999999</v>
       </c>
       <c r="Q10">
-        <v>0.84650000000000003</v>
+        <v>0.90149999999999997</v>
       </c>
       <c r="R10">
-        <v>0.54469999999999996</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="S10">
-        <v>0.74280000000000002</v>
+        <v>0.68859999999999999</v>
       </c>
       <c r="T10">
-        <v>0.96709999999999996</v>
+        <v>0.53369999999999995</v>
       </c>
       <c r="U10">
-        <v>0.7782</v>
+        <v>0.7923</v>
       </c>
       <c r="V10">
-        <v>0.44059999999999999</v>
+        <v>0.89959999999999996</v>
       </c>
       <c r="W10">
-        <v>0.55410000000000004</v>
+        <v>0.6149</v>
       </c>
       <c r="X10">
-        <v>0.90169999999999995</v>
+        <v>0.65849999999999997</v>
       </c>
       <c r="Y10">
-        <v>0.32879999999999998</v>
+        <v>0.53959999999999997</v>
       </c>
       <c r="Z10">
-        <v>0.45140000000000002</v>
+        <v>0.72660000000000002</v>
       </c>
       <c r="AA10">
-        <v>0.57989999999999997</v>
+        <v>0.60619999999999996</v>
       </c>
       <c r="AB10">
-        <v>0.47210000000000002</v>
+        <v>0.8952</v>
       </c>
       <c r="AC10">
-        <v>0.82369999999999999</v>
+        <v>0.76349999999999996</v>
       </c>
       <c r="AD10">
-        <v>0.57940000000000003</v>
+        <v>0.68820000000000003</v>
       </c>
       <c r="AE10">
-        <v>0.44490000000000002</v>
+        <v>0.80549999999999999</v>
       </c>
       <c r="AF10">
-        <v>0.77829999999999999</v>
+        <v>0.4713</v>
       </c>
       <c r="AG10">
-        <v>0.98450000000000004</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="AH10">
-        <v>0.1084</v>
+        <v>0.3039</v>
       </c>
       <c r="AI10">
-        <v>0.57440000000000002</v>
+        <v>0.81559999999999999</v>
       </c>
       <c r="AJ10">
-        <v>0.73409999999999997</v>
+        <v>0.51559999999999995</v>
       </c>
       <c r="AK10">
-        <v>0.76090000000000002</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AL10">
-        <v>0.79759999999999998</v>
+        <v>0.43</v>
       </c>
       <c r="AM10">
-        <v>0.55249999999999999</v>
+        <v>0.68930000000000002</v>
       </c>
       <c r="AN10">
-        <v>0.48449999999999999</v>
+        <v>0.76670000000000005</v>
       </c>
       <c r="AO10">
-        <v>0.72289999999999999</v>
+        <v>0.41289999999999999</v>
       </c>
       <c r="AP10">
-        <v>0.64410000000000001</v>
+        <v>0.73370000000000002</v>
       </c>
       <c r="AQ10">
-        <v>0.3891</v>
+        <v>0.62780000000000002</v>
       </c>
       <c r="AR10">
-        <v>0.88849999999999996</v>
+        <v>0.16919999999999999</v>
       </c>
       <c r="AS10">
-        <v>0.53590000000000004</v>
+        <v>0.6734</v>
       </c>
       <c r="AT10">
-        <v>0.86319999999999997</v>
+        <v>0.98750000000000004</v>
       </c>
       <c r="AU10">
-        <v>0.46410000000000001</v>
+        <v>0.38019999999999998</v>
       </c>
       <c r="AV10">
-        <v>0.83009999999999995</v>
+        <v>0.63139999999999996</v>
       </c>
       <c r="AW10">
-        <v>0.47010000000000002</v>
+        <v>0.60119999999999996</v>
       </c>
       <c r="AX10">
-        <v>0.62760000000000005</v>
+        <v>0.20780000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8.4400000000000003E-2</v>
+        <v>0.51270000000000004</v>
       </c>
       <c r="B11">
-        <v>0.29730000000000001</v>
+        <v>0.73619999999999997</v>
       </c>
       <c r="C11">
-        <v>0.14019999999999999</v>
+        <v>0.80030000000000001</v>
       </c>
       <c r="D11">
-        <v>0.73929999999999996</v>
+        <v>0.58209999999999995</v>
       </c>
       <c r="E11">
-        <v>0.4607</v>
+        <v>0.6804</v>
       </c>
       <c r="F11">
-        <v>0.48609999999999998</v>
+        <v>0.91069999999999995</v>
       </c>
       <c r="G11">
-        <v>0.1389</v>
+        <v>0.40210000000000001</v>
       </c>
       <c r="H11">
-        <v>0.3528</v>
+        <v>0.71609999999999996</v>
       </c>
       <c r="I11">
-        <v>0.57210000000000005</v>
+        <v>0.73329999999999995</v>
       </c>
       <c r="J11">
-        <v>0.53549999999999998</v>
+        <v>0.63360000000000005</v>
       </c>
       <c r="K11">
-        <v>0.72609999999999997</v>
+        <v>0.54779999999999995</v>
       </c>
       <c r="L11">
-        <v>0.55120000000000002</v>
+        <v>0.43219999999999997</v>
       </c>
       <c r="M11">
-        <v>0.62470000000000003</v>
+        <v>0.78310000000000002</v>
       </c>
       <c r="N11">
-        <v>0.9153</v>
+        <v>0.55869999999999997</v>
       </c>
       <c r="O11">
-        <v>0.78190000000000004</v>
+        <v>0.54090000000000005</v>
       </c>
       <c r="P11">
-        <v>0.79379999999999995</v>
+        <v>0.3175</v>
       </c>
       <c r="Q11">
-        <v>0.83140000000000003</v>
+        <v>0.94140000000000001</v>
       </c>
       <c r="R11">
-        <v>0.57369999999999999</v>
+        <v>0.91749999999999998</v>
       </c>
       <c r="S11">
-        <v>0.66469999999999996</v>
+        <v>0.44069999999999998</v>
       </c>
       <c r="T11">
-        <v>0.95930000000000004</v>
+        <v>0.58240000000000003</v>
       </c>
       <c r="U11">
-        <v>0.74970000000000003</v>
+        <v>0.91049999999999998</v>
       </c>
       <c r="V11">
-        <v>0.36670000000000003</v>
+        <v>0.90059999999999996</v>
       </c>
       <c r="W11">
-        <v>0.53559999999999997</v>
+        <v>0.6028</v>
       </c>
       <c r="X11">
-        <v>0.85770000000000002</v>
+        <v>0.5575</v>
       </c>
       <c r="Y11">
-        <v>0.65790000000000004</v>
+        <v>0.38290000000000002</v>
       </c>
       <c r="Z11">
-        <v>0.71630000000000005</v>
+        <v>0.75190000000000001</v>
       </c>
       <c r="AA11">
-        <v>0.74870000000000003</v>
+        <v>0.24610000000000001</v>
       </c>
       <c r="AB11">
-        <v>0.43880000000000002</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="AC11">
-        <v>0.71799999999999997</v>
+        <v>0.73129999999999995</v>
       </c>
       <c r="AD11">
-        <v>0.48930000000000001</v>
+        <v>0.66830000000000001</v>
       </c>
       <c r="AE11">
-        <v>0.44919999999999999</v>
+        <v>0.68640000000000001</v>
       </c>
       <c r="AF11">
-        <v>0.76949999999999996</v>
+        <v>0.47389999999999999</v>
       </c>
       <c r="AG11">
-        <v>0.99339999999999995</v>
+        <v>0.41560000000000002</v>
       </c>
       <c r="AH11">
-        <v>2.4799999999999999E-2</v>
+        <v>0.66520000000000001</v>
       </c>
       <c r="AI11">
-        <v>0.58389999999999997</v>
+        <v>0.76839999999999997</v>
       </c>
       <c r="AJ11">
-        <v>0.71779999999999999</v>
+        <v>0.32219999999999999</v>
       </c>
       <c r="AK11">
-        <v>0.56100000000000005</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>0.65659999999999996</v>
+        <v>0.4032</v>
       </c>
       <c r="AM11">
-        <v>0.4365</v>
+        <v>0.71319999999999995</v>
       </c>
       <c r="AN11">
-        <v>0.40039999999999998</v>
+        <v>0.64849999999999997</v>
       </c>
       <c r="AO11">
-        <v>0.6421</v>
+        <v>0.45829999999999999</v>
       </c>
       <c r="AP11">
-        <v>0.62180000000000002</v>
+        <v>0.67059999999999997</v>
       </c>
       <c r="AQ11">
-        <v>0.30070000000000002</v>
+        <v>0.88770000000000004</v>
       </c>
       <c r="AR11">
-        <v>0.88319999999999999</v>
+        <v>0.11169999999999999</v>
       </c>
       <c r="AS11">
-        <v>0.47099999999999997</v>
+        <v>0.59150000000000003</v>
       </c>
       <c r="AT11">
-        <v>0.89800000000000002</v>
+        <v>0.97040000000000004</v>
       </c>
       <c r="AU11">
-        <v>0.56999999999999995</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="AV11">
-        <v>0.83040000000000003</v>
+        <v>0.70709999999999995</v>
       </c>
       <c r="AW11">
-        <v>0.56420000000000003</v>
+        <v>0.74150000000000005</v>
       </c>
       <c r="AX11">
-        <v>0.57679999999999998</v>
+        <v>0.13689999999999999</v>
       </c>
     </row>
   </sheetData>
